--- a/biology/Médecine/John_Dickinson_(missionnaire)/John_Dickinson_(missionnaire).xlsx
+++ b/biology/Médecine/John_Dickinson_(missionnaire)/John_Dickinson_(missionnaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Dickinson, né le 18 mars 1832 à Jarrow (Gateshead) et mort à Chibisa (Malawi) le 17 mars 1863[1], est un médecin et missionnaire britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Dickinson, né le 18 mars 1832 à Jarrow (Gateshead) et mort à Chibisa (Malawi) le 17 mars 1863, est un médecin et missionnaire britannique.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Dickinson fait ses études de médecine à Durham dont il est diplômé en 1853[2]. David Livingstone le choisit en 1862 pour l'accompagner dans ses expéditions au Zambèze mais il meurt du paludisme quelque mois plus tard à Chibisa[3].
-Une espèce de faucon qu'il a découvert à Chibisa[4], a été nommée en son honneur[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Dickinson fait ses études de médecine à Durham dont il est diplômé en 1853. David Livingstone le choisit en 1862 pour l'accompagner dans ses expéditions au Zambèze mais il meurt du paludisme quelque mois plus tard à Chibisa.
+Une espèce de faucon qu'il a découvert à Chibisa, a été nommée en son honneur.
 </t>
         </is>
       </c>
